--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -946,7 +946,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +968,10 @@
         <v>38</v>
       </c>
       <c r="D1" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,10 +985,10 @@
         <v>41</v>
       </c>
       <c r="D2">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1">
         <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,10 +1002,10 @@
         <v>30</v>
       </c>
       <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
         <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,10 +1019,10 @@
         <v>43</v>
       </c>
       <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1">
         <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,10 +1036,10 @@
         <v>50</v>
       </c>
       <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
         <v>25</v>
-      </c>
-      <c r="E5" s="1">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
         <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,10 +1087,10 @@
         <v>32</v>
       </c>
       <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
         <v>15</v>
-      </c>
-      <c r="E8" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1104,10 +1104,10 @@
         <v>31</v>
       </c>
       <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1">
         <v>15</v>
-      </c>
-      <c r="E9" s="1">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,10 +1121,10 @@
         <v>33</v>
       </c>
       <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
         <v>15</v>
-      </c>
-      <c r="E10" s="1">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,10 +1138,10 @@
         <v>31</v>
       </c>
       <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
         <v>31</v>
-      </c>
-      <c r="E11" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,10 +1172,10 @@
         <v>31</v>
       </c>
       <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
         <v>15</v>
-      </c>
-      <c r="E13" s="1">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,10 +1206,10 @@
         <v>37</v>
       </c>
       <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1">
         <v>15</v>
-      </c>
-      <c r="E15" s="1">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,10 +1223,10 @@
         <v>37</v>
       </c>
       <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
         <v>15</v>
-      </c>
-      <c r="E16" s="1">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>30</v>
       </c>
       <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
         <v>15</v>
-      </c>
-      <c r="E17" s="1">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,10 +1257,10 @@
         <v>37</v>
       </c>
       <c r="D18">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
         <v>15</v>
-      </c>
-      <c r="E18" s="1">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,10 +1274,10 @@
         <v>39</v>
       </c>
       <c r="D19">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
         <v>15</v>
-      </c>
-      <c r="E19" s="1">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Nama Akun</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>01 diana putri</t>
   </si>
@@ -45,9 +42,6 @@
     <t>07 Lia Ananta</t>
   </si>
   <si>
-    <t>08 Nabila Setyorini</t>
-  </si>
-  <si>
     <t>09 Omar Surya</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>18 Laila Aria</t>
   </si>
   <si>
-    <t>Lokasi</t>
-  </si>
-  <si>
     <t>Riau …</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Jatim-2</t>
   </si>
   <si>
-    <t>Jateng-2 …</t>
-  </si>
-  <si>
     <t>Kalteng …</t>
   </si>
   <si>
@@ -135,7 +123,16 @@
     <t>Aceh …</t>
   </si>
   <si>
-    <t>Len …</t>
+    <t>19 Puspa</t>
+  </si>
+  <si>
+    <t>Jatim-3</t>
+  </si>
+  <si>
+    <t>Jateng</t>
+  </si>
+  <si>
+    <t>08 Maya Lestari</t>
   </si>
 </sst>
 </file>
@@ -621,7 +618,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -943,18 +940,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="5" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,16 +960,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>41</v>
+      </c>
+      <c r="E1">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,16 +991,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,15 +1005,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1">
+        <v>103</v>
+      </c>
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
@@ -1030,16 +1019,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,16 +1033,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,221 +1047,201 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1">
+        <v>33</v>
+      </c>
+      <c r="E9">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1">
+        <v>31</v>
+      </c>
+      <c r="E10">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>37</v>
       </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
-        <v>37</v>
-      </c>
-      <c r="D16">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>37</v>
-      </c>
-      <c r="D18">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>39</v>
+      <c r="C19" s="1">
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>37</v>
-      </c>
-      <c r="E19" s="1">
-        <v>15</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>54</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -965,6 +965,9 @@
       <c r="C1">
         <v>41</v>
       </c>
+      <c r="D1">
+        <v>41</v>
+      </c>
       <c r="E1">
         <v>20</v>
       </c>
@@ -996,6 +999,9 @@
       <c r="C3">
         <v>43</v>
       </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
       <c r="E3">
         <v>20</v>
       </c>
@@ -1010,8 +1016,11 @@
       <c r="C4">
         <v>103</v>
       </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
       <c r="E4">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,6 +1033,9 @@
       <c r="C5">
         <v>24</v>
       </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
       <c r="E5">
         <v>24</v>
       </c>
@@ -1038,6 +1050,9 @@
       <c r="C6">
         <v>45</v>
       </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
       <c r="E6">
         <v>20</v>
       </c>
@@ -1052,6 +1067,9 @@
       <c r="C7">
         <v>32</v>
       </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
       <c r="E7">
         <v>15</v>
       </c>
@@ -1066,6 +1084,9 @@
       <c r="C8" s="1">
         <v>54</v>
       </c>
+      <c r="D8">
+        <v>54</v>
+      </c>
       <c r="E8">
         <v>27</v>
       </c>
@@ -1080,6 +1101,9 @@
       <c r="C9">
         <v>33</v>
       </c>
+      <c r="D9">
+        <v>33</v>
+      </c>
       <c r="E9">
         <v>15</v>
       </c>
@@ -1094,6 +1118,9 @@
       <c r="C10">
         <v>31</v>
       </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
       <c r="E10">
         <v>15</v>
       </c>
@@ -1159,6 +1186,9 @@
       <c r="C14">
         <v>37</v>
       </c>
+      <c r="D14">
+        <v>37</v>
+      </c>
       <c r="E14">
         <v>15</v>
       </c>
@@ -1173,6 +1203,9 @@
       <c r="C15">
         <v>37</v>
       </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
       <c r="E15">
         <v>15</v>
       </c>
@@ -1187,6 +1220,9 @@
       <c r="C16">
         <v>30</v>
       </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
       <c r="E16">
         <v>15</v>
       </c>
@@ -1201,6 +1237,9 @@
       <c r="C17">
         <v>37</v>
       </c>
+      <c r="D17">
+        <v>37</v>
+      </c>
       <c r="E17">
         <v>15</v>
       </c>
@@ -1213,6 +1252,9 @@
         <v>33</v>
       </c>
       <c r="C18">
+        <v>39</v>
+      </c>
+      <c r="D18">
         <v>39</v>
       </c>
       <c r="E18">

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ROBOT FB UNDERGROUND 2024\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\filetransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -948,8 +948,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" customWidth="1"/>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -943,12 +943,12 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
@@ -966,10 +966,10 @@
         <v>41</v>
       </c>
       <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
         <v>41</v>
-      </c>
-      <c r="E1">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>54</v>
       </c>
       <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
         <v>54</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>43</v>
       </c>
       <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
         <v>43</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>45</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>45</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>32</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>54</v>
       </c>
       <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
         <v>54</v>
-      </c>
-      <c r="E8">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>33</v>
       </c>
       <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>33</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>31</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,9 +1152,6 @@
       <c r="C12">
         <v>31</v>
       </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
       <c r="E12">
         <v>31</v>
       </c>
@@ -1187,10 +1184,10 @@
         <v>37</v>
       </c>
       <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
         <v>37</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,10 +1201,10 @@
         <v>37</v>
       </c>
       <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>37</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,10 +1218,10 @@
         <v>30</v>
       </c>
       <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>30</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,10 +1235,10 @@
         <v>37</v>
       </c>
       <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
         <v>37</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,10 +1252,10 @@
         <v>39</v>
       </c>
       <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
         <v>39</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,9 +1267,6 @@
       </c>
       <c r="C19" s="1">
         <v>54</v>
-      </c>
-      <c r="D19">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>54</v>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,10 +966,10 @@
         <v>41</v>
       </c>
       <c r="D1">
+        <v>41</v>
+      </c>
+      <c r="E1">
         <v>20</v>
-      </c>
-      <c r="E1">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>54</v>
       </c>
       <c r="D2">
+        <v>54</v>
+      </c>
+      <c r="E2">
         <v>27</v>
-      </c>
-      <c r="E2">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>43</v>
       </c>
       <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>45</v>
       </c>
       <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
         <v>20</v>
-      </c>
-      <c r="E6">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
         <v>15</v>
-      </c>
-      <c r="E7">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>54</v>
       </c>
       <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8">
         <v>27</v>
-      </c>
-      <c r="E8">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>33</v>
       </c>
       <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
         <v>15</v>
-      </c>
-      <c r="E9">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
         <v>15</v>
-      </c>
-      <c r="E10">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,8 +1152,11 @@
       <c r="C12">
         <v>31</v>
       </c>
+      <c r="D12">
+        <v>31</v>
+      </c>
       <c r="E12">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,10 +1187,10 @@
         <v>37</v>
       </c>
       <c r="D14">
+        <v>37</v>
+      </c>
+      <c r="E14">
         <v>15</v>
-      </c>
-      <c r="E14">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,10 +1204,10 @@
         <v>37</v>
       </c>
       <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
         <v>15</v>
-      </c>
-      <c r="E15">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,10 +1221,10 @@
         <v>30</v>
       </c>
       <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
         <v>15</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,10 +1238,10 @@
         <v>37</v>
       </c>
       <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
         <v>15</v>
-      </c>
-      <c r="E17">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,10 +1255,10 @@
         <v>39</v>
       </c>
       <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
         <v>15</v>
-      </c>
-      <c r="E18">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,8 +1271,11 @@
       <c r="C19" s="1">
         <v>54</v>
       </c>
+      <c r="D19">
+        <v>54</v>
+      </c>
       <c r="E19">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1"/>
     </row>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,10 +966,10 @@
         <v>41</v>
       </c>
       <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
         <v>41</v>
-      </c>
-      <c r="E1">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>54</v>
       </c>
       <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
         <v>54</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>43</v>
       </c>
       <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
         <v>43</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>103</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>45</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>45</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>32</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>54</v>
       </c>
       <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
         <v>54</v>
-      </c>
-      <c r="E8">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>33</v>
       </c>
       <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>33</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>31</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>31</v>
       </c>
       <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
         <v>31</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>37</v>
       </c>
       <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
         <v>37</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>37</v>
       </c>
       <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>37</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,10 +1221,10 @@
         <v>30</v>
       </c>
       <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>30</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,10 +1238,10 @@
         <v>37</v>
       </c>
       <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
         <v>37</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,10 +1255,10 @@
         <v>39</v>
       </c>
       <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
         <v>39</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,10 +1272,10 @@
         <v>54</v>
       </c>
       <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
         <v>54</v>
-      </c>
-      <c r="E19">
-        <v>27</v>
       </c>
       <c r="F19" s="1"/>
     </row>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,10 +1017,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,6 @@
       <c r="E19">
         <v>54</v>
       </c>
-      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,10 +966,10 @@
         <v>41</v>
       </c>
       <c r="D1">
+        <v>41</v>
+      </c>
+      <c r="E1">
         <v>20</v>
-      </c>
-      <c r="E1">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>54</v>
       </c>
       <c r="D2">
+        <v>54</v>
+      </c>
+      <c r="E2">
         <v>27</v>
-      </c>
-      <c r="E2">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>43</v>
       </c>
       <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>45</v>
       </c>
       <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
         <v>20</v>
-      </c>
-      <c r="E6">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
         <v>15</v>
-      </c>
-      <c r="E7">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>54</v>
       </c>
       <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8">
         <v>27</v>
-      </c>
-      <c r="E8">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>33</v>
       </c>
       <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
         <v>15</v>
-      </c>
-      <c r="E9">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
         <v>15</v>
-      </c>
-      <c r="E10">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>31</v>
       </c>
       <c r="D12">
+        <v>31</v>
+      </c>
+      <c r="E12">
         <v>15</v>
-      </c>
-      <c r="E12">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>37</v>
       </c>
       <c r="D14">
+        <v>37</v>
+      </c>
+      <c r="E14">
         <v>15</v>
-      </c>
-      <c r="E14">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>37</v>
       </c>
       <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
         <v>15</v>
-      </c>
-      <c r="E15">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,10 +1221,10 @@
         <v>30</v>
       </c>
       <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
         <v>15</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,10 +1238,10 @@
         <v>37</v>
       </c>
       <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
         <v>15</v>
-      </c>
-      <c r="E17">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,10 +1255,10 @@
         <v>39</v>
       </c>
       <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
         <v>15</v>
-      </c>
-      <c r="E18">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,10 +1272,10 @@
         <v>54</v>
       </c>
       <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
         <v>27</v>
-      </c>
-      <c r="E19">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\filetransfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MQ\Documents\filetransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -940,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,8 +951,8 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
         <v>41</v>
       </c>
       <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
         <v>41</v>
-      </c>
-      <c r="E1">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>54</v>
       </c>
       <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
         <v>54</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>43</v>
       </c>
       <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
         <v>43</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>45</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>45</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>32</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>54</v>
       </c>
       <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
         <v>54</v>
-      </c>
-      <c r="E8">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>33</v>
       </c>
       <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>33</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>31</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>31</v>
       </c>
       <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
         <v>31</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>37</v>
       </c>
       <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
         <v>37</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>37</v>
       </c>
       <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>37</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,13 +1221,13 @@
         <v>30</v>
       </c>
       <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>30</v>
       </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1238,13 +1238,13 @@
         <v>37</v>
       </c>
       <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
         <v>37</v>
       </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1255,13 +1255,13 @@
         <v>39</v>
       </c>
       <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
         <v>39</v>
       </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1272,17 +1272,16 @@
         <v>54</v>
       </c>
       <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
         <v>54</v>
       </c>
-      <c r="E19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -966,10 +966,10 @@
         <v>41</v>
       </c>
       <c r="D1">
+        <v>41</v>
+      </c>
+      <c r="E1">
         <v>20</v>
-      </c>
-      <c r="E1">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>54</v>
       </c>
       <c r="D2">
+        <v>54</v>
+      </c>
+      <c r="E2">
         <v>27</v>
-      </c>
-      <c r="E2">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>43</v>
       </c>
       <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>45</v>
       </c>
       <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
         <v>20</v>
-      </c>
-      <c r="E6">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
         <v>15</v>
-      </c>
-      <c r="E7">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>54</v>
       </c>
       <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8">
         <v>27</v>
-      </c>
-      <c r="E8">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>33</v>
       </c>
       <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
         <v>15</v>
-      </c>
-      <c r="E9">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
         <v>15</v>
-      </c>
-      <c r="E10">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>31</v>
       </c>
       <c r="D12">
+        <v>31</v>
+      </c>
+      <c r="E12">
         <v>15</v>
-      </c>
-      <c r="E12">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>37</v>
       </c>
       <c r="D14">
+        <v>37</v>
+      </c>
+      <c r="E14">
         <v>15</v>
-      </c>
-      <c r="E14">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>37</v>
       </c>
       <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
         <v>15</v>
-      </c>
-      <c r="E15">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,10 +1221,10 @@
         <v>30</v>
       </c>
       <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
         <v>15</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,10 +1238,10 @@
         <v>37</v>
       </c>
       <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
         <v>15</v>
-      </c>
-      <c r="E17">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,10 +1255,10 @@
         <v>39</v>
       </c>
       <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
         <v>15</v>
-      </c>
-      <c r="E18">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,10 +1272,10 @@
         <v>54</v>
       </c>
       <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
         <v>27</v>
-      </c>
-      <c r="E19">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MQ\Documents\filetransfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\filetransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,8 +951,8 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>01 diana putri</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>08 Maya Lestari</t>
+  </si>
+  <si>
+    <t>20 Fitria</t>
+  </si>
+  <si>
+    <t>Jatim-</t>
   </si>
 </sst>
 </file>
@@ -943,7 +949,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,8 +957,9 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,10 +973,10 @@
         <v>41</v>
       </c>
       <c r="D1">
+        <v>27</v>
+      </c>
+      <c r="E1">
         <v>41</v>
-      </c>
-      <c r="E1">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2">
         <v>54</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,10 +1007,10 @@
         <v>43</v>
       </c>
       <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
         <v>43</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1024,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1058,10 @@
         <v>45</v>
       </c>
       <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
         <v>45</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,10 +1075,10 @@
         <v>32</v>
       </c>
       <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
         <v>32</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,11 +1091,11 @@
       <c r="C8" s="1">
         <v>54</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
         <v>54</v>
-      </c>
-      <c r="E8">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,11 +1108,11 @@
       <c r="C9">
         <v>33</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>33</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,11 +1125,11 @@
       <c r="C10">
         <v>31</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>31</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,7 +1142,7 @@
       <c r="C11">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>19</v>
       </c>
       <c r="E11">
@@ -1152,11 +1159,11 @@
       <c r="C12">
         <v>31</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12">
         <v>31</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,7 +1176,7 @@
       <c r="C13">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>22</v>
       </c>
       <c r="E13">
@@ -1186,11 +1193,11 @@
       <c r="C14">
         <v>37</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <v>15</v>
+      </c>
+      <c r="E14">
         <v>37</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,11 +1210,11 @@
       <c r="C15">
         <v>37</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>37</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,11 +1227,11 @@
       <c r="C16">
         <v>30</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>30</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,11 +1244,11 @@
       <c r="C17">
         <v>37</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17">
         <v>37</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,11 +1261,11 @@
       <c r="C18">
         <v>39</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18">
         <v>39</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,17 +1278,29 @@
       <c r="C19" s="1">
         <v>54</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1">
         <v>54</v>
       </c>
-      <c r="E19">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="E20" s="1">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -959,7 +959,6 @@
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,7 +972,7 @@
         <v>41</v>
       </c>
       <c r="D1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1">
         <v>41</v>
@@ -990,7 +989,7 @@
         <v>54</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>54</v>
@@ -1007,7 +1006,7 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>43</v>
@@ -1024,10 +1023,10 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,7 +1057,7 @@
         <v>45</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>45</v>
@@ -1075,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>32</v>

--- a/baru - akun facebook dan lokasi target.xlsx
+++ b/baru - akun facebook dan lokasi target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\filetransfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MQ\Documents\filetransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -949,7 +949,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
